--- a/csv/policies/reference/Ref_clean electricity/formula_Ref_clean electricity_BC.xlsx
+++ b/csv/policies/reference/Ref_clean electricity/formula_Ref_clean electricity_BC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\BC_temp\electricity_clean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_clean electricity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{910250EB-6A71-4C20-BA6D-2CB52D62C34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8F5F92-67F3-4957-A384-9428A0849DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D79E3FB6-9DFE-4178-8D1E-FE8C4A29C8C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D79E3FB6-9DFE-4178-8D1E-FE8C4A29C8C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,11 +526,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F845B62A-98E6-44B3-B73C-C8E397E2ACE2}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -640,34 +646,34 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -687,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -713,7 +719,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -739,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -765,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>22</v>
@@ -791,7 +797,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
@@ -817,7 +823,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
@@ -843,7 +849,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
         <v>22</v>
@@ -869,7 +875,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
         <v>22</v>
@@ -895,7 +901,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
@@ -921,7 +927,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
         <v>22</v>
@@ -947,7 +953,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
@@ -973,7 +979,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
@@ -999,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
@@ -1040,31 +1046,31 @@
         <v>0.9</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -1084,7 +1090,7 @@
         <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -1110,7 +1116,7 @@
         <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>22</v>
@@ -1136,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
         <v>22</v>
@@ -1162,7 +1168,7 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>22</v>
@@ -1188,7 +1194,7 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
         <v>22</v>
@@ -1214,7 +1220,7 @@
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>22</v>
@@ -1255,31 +1261,31 @@
         <v>0.9</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">

--- a/csv/policies/reference/Ref_clean electricity/formula_Ref_clean electricity_BC.xlsx
+++ b/csv/policies/reference/Ref_clean electricity/formula_Ref_clean electricity_BC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_clean electricity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8F5F92-67F3-4957-A384-9428A0849DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{614705A5-6913-4E79-82AC-DC7A24A8EE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D79E3FB6-9DFE-4178-8D1E-FE8C4A29C8C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6927FE4-83D4-491C-8423-C7CE29D7B8D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="47">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -101,48 +101,48 @@
     <t>%</t>
   </si>
   <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Market share_class</t>
+  </si>
+  <si>
+    <t>Biomass CCS</t>
+  </si>
+  <si>
+    <t>Geoexchange</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Nuclear SMR</t>
+  </si>
+  <si>
+    <t>Hydro Reservoir</t>
+  </si>
+  <si>
     <t>Hydro River</t>
   </si>
   <si>
-    <t>Market share_class</t>
-  </si>
-  <si>
     <t>Solar PV</t>
   </si>
   <si>
+    <t>Solar PV + Battery</t>
+  </si>
+  <si>
     <t>Wind Onshore</t>
   </si>
   <si>
+    <t>Wind + Battery</t>
+  </si>
+  <si>
+    <t>Wind + Seasonal</t>
+  </si>
+  <si>
     <t>Wind Offshore</t>
   </si>
   <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>Nuclear SMR</t>
-  </si>
-  <si>
-    <t>Hydro Reservoir</t>
-  </si>
-  <si>
-    <t>Solar PV + Battery</t>
-  </si>
-  <si>
-    <t>Wind + Battery</t>
-  </si>
-  <si>
-    <t>Wind + Seasonal</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>Biomass CCS</t>
-  </si>
-  <si>
-    <t>Geoexchange</t>
-  </si>
-  <si>
     <t>CIMS.CAN.BC.Electricity.Utility Generation.Shoulder Load</t>
   </si>
   <si>
@@ -153,6 +153,30 @@
   </si>
   <si>
     <t>Peak Load</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Retrofit_existing_min</t>
+  </si>
+  <si>
+    <t>Coal CCS</t>
+  </si>
+  <si>
+    <t>Fuel Oil</t>
+  </si>
+  <si>
+    <t>Natural Gas SC</t>
+  </si>
+  <si>
+    <t>Natural Gas CC</t>
+  </si>
+  <si>
+    <t>Natural Gas CC CCS</t>
+  </si>
+  <si>
+    <t>Waste</t>
   </si>
 </sst>
 </file>
@@ -523,20 +547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F845B62A-98E6-44B3-B73C-C8E397E2ACE2}">
-  <dimension ref="A1:X26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1922D9D-F05A-4C92-BCD9-F37E0C30963E}">
+  <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:W26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:X40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -642,38 +660,35 @@
       <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -693,7 +708,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -719,7 +734,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -745,7 +760,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -771,7 +786,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
         <v>22</v>
@@ -797,7 +812,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
@@ -823,7 +838,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
@@ -849,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
         <v>22</v>
@@ -875,7 +890,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
         <v>22</v>
@@ -901,7 +916,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
@@ -927,7 +942,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>22</v>
@@ -953,7 +968,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
@@ -979,7 +994,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
@@ -1005,7 +1020,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
@@ -1039,38 +1054,35 @@
       <c r="L17" t="s">
         <v>20</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
+        <v>0.8</v>
+      </c>
+      <c r="O17">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="P17">
+        <v>0.85</v>
+      </c>
+      <c r="Q17">
+        <v>0.875</v>
+      </c>
+      <c r="R17">
         <v>0.9</v>
       </c>
-      <c r="O17">
-        <v>0.999</v>
-      </c>
-      <c r="P17">
-        <v>0.999</v>
-      </c>
-      <c r="Q17">
-        <v>0.999</v>
-      </c>
-      <c r="R17">
-        <v>0.999</v>
-      </c>
       <c r="S17">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -1090,7 +1102,7 @@
         <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -1116,7 +1128,7 @@
         <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
         <v>22</v>
@@ -1142,7 +1154,7 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
         <v>22</v>
@@ -1168,7 +1180,7 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>22</v>
@@ -1194,7 +1206,7 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>22</v>
@@ -1220,7 +1232,7 @@
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>22</v>
@@ -1254,38 +1266,35 @@
       <c r="L24" t="s">
         <v>20</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="O24">
-        <v>0.999</v>
+        <v>0.65</v>
       </c>
       <c r="P24">
-        <v>0.999</v>
+        <v>0.7</v>
       </c>
       <c r="Q24">
-        <v>0.999</v>
+        <v>0.75</v>
       </c>
       <c r="R24">
-        <v>0.999</v>
+        <v>0.8</v>
       </c>
       <c r="S24">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -1305,7 +1314,7 @@
         <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
         <v>22</v>
@@ -1331,13 +1340,797 @@
         <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>22</v>
       </c>
       <c r="H26" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27">
+        <v>0.5</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f>O27</f>
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <f>P27</f>
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <f t="shared" ref="R27:W27" si="0">Q27</f>
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28">
+        <v>0.5</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ref="P28:W40" si="1">O28</f>
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29">
+        <v>0.5</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <v>0.5</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31">
+        <v>0.5</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32">
+        <v>0.5</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33">
+        <v>0.5</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34">
+        <v>0.5</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35">
+        <v>0.5</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36">
+        <v>0.5</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37">
+        <v>0.5</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38">
+        <v>0.5</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39">
+        <v>0.5</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40">
+        <v>0.5</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
